--- a/ref.xlsx
+++ b/ref.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YewLoung/PycharmProjects/SE_Datasheet_Scrape/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2E15B-D585-B04D-A8D8-6712DF17BA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>RM17JC00MW</t>
   </si>
@@ -28,54 +34,56 @@
     <t>RM10TE00</t>
   </si>
   <si>
-    <t>RM17TG00</t>
-  </si>
-  <si>
-    <t>RM17TG20</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM17JC00MW/</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM17TA00/</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM17TE00/</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM10TE00/</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM17TG00/</t>
-  </si>
-  <si>
-    <t>https://www.se.com/sg/en/product/RM17TG20/</t>
-  </si>
-  <si>
-    <t>Found</t>
-  </si>
-  <si>
-    <t>Not Found</t>
+    <t>RE22R2AMR</t>
+  </si>
+  <si>
+    <t>RE22R2CMR</t>
+  </si>
+  <si>
+    <t>RMTJ60BD</t>
+  </si>
+  <si>
+    <t>XVDLS37</t>
+  </si>
+  <si>
+    <t>XVDLS38</t>
+  </si>
+  <si>
+    <t>RHT428B</t>
+  </si>
+  <si>
+    <t>RHT418BE</t>
+  </si>
+  <si>
+    <t>RSB1A160M7S</t>
+  </si>
+  <si>
+    <t>RSB1A160NDS</t>
+  </si>
+  <si>
+    <t>RSB2A080P7S</t>
+  </si>
+  <si>
+    <t>RSB2A080RDS</t>
+  </si>
+  <si>
+    <t>RSB2A080U7S</t>
+  </si>
+  <si>
+    <t>RSB2A080M7S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,23 +103,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +252,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,88 +445,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ref.xlsx
+++ b/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YewLoung/PycharmProjects/SE_Datasheet_Scrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2E15B-D585-B04D-A8D8-6712DF17BA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FE359-CE46-A84D-9277-8D4CD187C514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>RM17JC00MW</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>RSB2A080M7S</t>
+  </si>
+  <si>
+    <t>RXG11RD</t>
+  </si>
+  <si>
+    <t>RXM2AB1B7</t>
+  </si>
+  <si>
+    <t>RXM4AB1B7</t>
   </si>
 </sst>
 </file>
@@ -446,13 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -539,6 +551,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ref.xlsx
+++ b/ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YewLoung/PycharmProjects/SE_Datasheet_Scrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FE359-CE46-A84D-9277-8D4CD187C514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB412E-01EE-4C4F-AC17-9DDD187FBEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>RM17JC00MW</t>
-  </si>
-  <si>
     <t>RM17TA00</t>
   </si>
   <si>
@@ -34,52 +31,55 @@
     <t>RM10TE00</t>
   </si>
   <si>
-    <t>RE22R2AMR</t>
-  </si>
-  <si>
-    <t>RE22R2CMR</t>
-  </si>
-  <si>
-    <t>RMTJ60BD</t>
-  </si>
-  <si>
-    <t>XVDLS37</t>
-  </si>
-  <si>
-    <t>XVDLS38</t>
-  </si>
-  <si>
-    <t>RHT428B</t>
-  </si>
-  <si>
-    <t>RHT418BE</t>
-  </si>
-  <si>
-    <t>RSB1A160M7S</t>
-  </si>
-  <si>
-    <t>RSB1A160NDS</t>
-  </si>
-  <si>
-    <t>RSB2A080P7S</t>
-  </si>
-  <si>
-    <t>RSB2A080RDS</t>
-  </si>
-  <si>
-    <t>RSB2A080U7S</t>
-  </si>
-  <si>
-    <t>RSB2A080M7S</t>
-  </si>
-  <si>
-    <t>RXG11RD</t>
-  </si>
-  <si>
-    <t>RXM2AB1B7</t>
-  </si>
-  <si>
-    <t>RXM4AB1B7</t>
+    <t>RM22TG20</t>
+  </si>
+  <si>
+    <t>RM22TR33</t>
+  </si>
+  <si>
+    <t>RM22TR31</t>
+  </si>
+  <si>
+    <t>RM22TU23</t>
+  </si>
+  <si>
+    <t>RM22TU21</t>
+  </si>
+  <si>
+    <t>RM22TA33</t>
+  </si>
+  <si>
+    <t>RM22TA31</t>
+  </si>
+  <si>
+    <t>RM17TG20</t>
+  </si>
+  <si>
+    <t>RM17TG00</t>
+  </si>
+  <si>
+    <t>RM10TG00</t>
+  </si>
+  <si>
+    <t>RM17TU00</t>
+  </si>
+  <si>
+    <t>RM17TT00</t>
+  </si>
+  <si>
+    <t>RM35TF30</t>
+  </si>
+  <si>
+    <t>RM35TF30SP01</t>
+  </si>
+  <si>
+    <t>RM35UB330</t>
+  </si>
+  <si>
+    <t>RM35UB3N30</t>
+  </si>
+  <si>
+    <t>RM17UB310</t>
   </si>
 </sst>
 </file>
@@ -115,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,103 +470,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>84873021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>84873891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>84873029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>84873890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>84873034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>84873195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>84873025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>84873023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>84873805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>84873024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>84873892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>84873804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>84873022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>84873026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>84873893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>84873220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>84873894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>84873221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>84873895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>84873222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>84873896</v>
       </c>
     </row>
   </sheetData>

--- a/ref.xlsx
+++ b/ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YewLoung/PycharmProjects/SE_Datasheet_Scrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB412E-01EE-4C4F-AC17-9DDD187FBEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FE359-CE46-A84D-9277-8D4CD187C514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
+    <t>RM17JC00MW</t>
+  </si>
+  <si>
     <t>RM17TA00</t>
   </si>
   <si>
@@ -31,55 +34,52 @@
     <t>RM10TE00</t>
   </si>
   <si>
-    <t>RM22TG20</t>
-  </si>
-  <si>
-    <t>RM22TR33</t>
-  </si>
-  <si>
-    <t>RM22TR31</t>
-  </si>
-  <si>
-    <t>RM22TU23</t>
-  </si>
-  <si>
-    <t>RM22TU21</t>
-  </si>
-  <si>
-    <t>RM22TA33</t>
-  </si>
-  <si>
-    <t>RM22TA31</t>
-  </si>
-  <si>
-    <t>RM17TG20</t>
-  </si>
-  <si>
-    <t>RM17TG00</t>
-  </si>
-  <si>
-    <t>RM10TG00</t>
-  </si>
-  <si>
-    <t>RM17TU00</t>
-  </si>
-  <si>
-    <t>RM17TT00</t>
-  </si>
-  <si>
-    <t>RM35TF30</t>
-  </si>
-  <si>
-    <t>RM35TF30SP01</t>
-  </si>
-  <si>
-    <t>RM35UB330</t>
-  </si>
-  <si>
-    <t>RM35UB3N30</t>
-  </si>
-  <si>
-    <t>RM17UB310</t>
+    <t>RE22R2AMR</t>
+  </si>
+  <si>
+    <t>RE22R2CMR</t>
+  </si>
+  <si>
+    <t>RMTJ60BD</t>
+  </si>
+  <si>
+    <t>XVDLS37</t>
+  </si>
+  <si>
+    <t>XVDLS38</t>
+  </si>
+  <si>
+    <t>RHT428B</t>
+  </si>
+  <si>
+    <t>RHT418BE</t>
+  </si>
+  <si>
+    <t>RSB1A160M7S</t>
+  </si>
+  <si>
+    <t>RSB1A160NDS</t>
+  </si>
+  <si>
+    <t>RSB2A080P7S</t>
+  </si>
+  <si>
+    <t>RSB2A080RDS</t>
+  </si>
+  <si>
+    <t>RSB2A080U7S</t>
+  </si>
+  <si>
+    <t>RSB2A080M7S</t>
+  </si>
+  <si>
+    <t>RXG11RD</t>
+  </si>
+  <si>
+    <t>RXM2AB1B7</t>
+  </si>
+  <si>
+    <t>RXM4AB1B7</t>
   </si>
 </sst>
 </file>
@@ -115,11 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,208 +467,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>84873021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>84873891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>84873029</v>
-      </c>
-    </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>84873890</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>84873034</v>
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>84873195</v>
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>84873025</v>
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>84873023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>84873805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>84873024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>84873892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>84873804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>84873022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>84873026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>84873893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>84873220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>84873894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>84873221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>84873895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>84873222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>84873896</v>
       </c>
     </row>
   </sheetData>
